--- a/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,57; 18,03</t>
+          <t>5,51; 25,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 21,63</t>
+          <t>0,0; 12,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,18; 17,96</t>
+          <t>4,18; 16,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>14,41%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 25,09</t>
+          <t>8,57; 18,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,42</t>
+          <t>11,48; 21,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 16,21</t>
+          <t>11,18; 17,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 25,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 16,21</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>13,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,41%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>10,78%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 18,03</t>
+          <t>7,52; 20,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,48; 21,63</t>
+          <t>3,69; 14,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,18; 17,96</t>
+          <t>6,83; 15,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>14,98%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,27; 17,39</t>
+          <t>8,27; 18,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,58; 19,16</t>
+          <t>12,3; 24,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,48; 16,63</t>
+          <t>11,24; 19,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12,97%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>14,01%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,65; 17,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>9,9; 19,06</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 16,64</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 20,27</t>
+          <t>8,14; 21,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 14,52</t>
+          <t>3,7; 14,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 15,34</t>
+          <t>7,12; 15,22</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 18,95</t>
+          <t>8,08; 19,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,3; 24,41</t>
+          <t>12,15; 24,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,24; 19,37</t>
+          <t>11,28; 19,84</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,89</t>
+          <t>8,79; 17,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 19,06</t>
+          <t>10,09; 18,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,64</t>
+          <t>10,78; 16,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,18 +497,18 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han vivido situaciones de cyberbulling en su colegio</t>
+          <t>Menores en cuyo colegio/instituto se han producido situaciones de cyberbulling</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,08%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 21,64</t>
+          <t>0; 2,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,7; 14,71</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,12; 15,22</t>
+          <t>0; 0,9</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,08; 19,0</t>
+          <t>0; 1,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 24,14</t>
+          <t>0; 1,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,28; 19,84</t>
+          <t>0; 0,53</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,36</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,77</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,66</t>
+          <t>0; 0,33</t>
         </is>
       </c>
     </row>
